--- a/team_specific_matrix/San Diego_B.xlsx
+++ b/team_specific_matrix/San Diego_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2084690553745928</v>
+        <v>0.2089356110381078</v>
       </c>
       <c r="C2">
-        <v>0.5309446254071661</v>
+        <v>0.5308804204993429</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009771986970684038</v>
+        <v>0.007884362680683311</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1433224755700326</v>
+        <v>0.1406044678055191</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1074918566775244</v>
+        <v>0.1116951379763469</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.002375296912114014</v>
       </c>
       <c r="C3">
-        <v>0.02654867256637168</v>
+        <v>0.02850356294536817</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05604719764011799</v>
+        <v>0.05225653206650831</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7168141592920354</v>
+        <v>0.7125890736342043</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2005899705014749</v>
+        <v>0.2042755344418052</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0392156862745098</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.680327868852459</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2549019607843137</v>
+        <v>0.2622950819672131</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07450980392156863</v>
+        <v>0.06396255850234009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009803921568627451</v>
+        <v>0.0109204368174727</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06666666666666667</v>
+        <v>0.0655226209048362</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2470588235294118</v>
+        <v>0.2636505460218408</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03333333333333333</v>
+        <v>0.031201248049922</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1823529411764706</v>
+        <v>0.1669266770670827</v>
       </c>
       <c r="R6">
-        <v>0.06470588235294118</v>
+        <v>0.0686427457098284</v>
       </c>
       <c r="S6">
-        <v>0.3215686274509804</v>
+        <v>0.3291731669266771</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09268292682926829</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02926829268292683</v>
+        <v>0.02656546489563567</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06585365853658537</v>
+        <v>0.06072106261859583</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.148780487804878</v>
+        <v>0.1518026565464896</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00975609756097561</v>
+        <v>0.01138519924098672</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1463414634146341</v>
+        <v>0.1480075901328273</v>
       </c>
       <c r="R7">
-        <v>0.08780487804878048</v>
+        <v>0.08159392789373814</v>
       </c>
       <c r="S7">
-        <v>0.4195121951219512</v>
+        <v>0.4231499051233397</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0926130099228225</v>
+        <v>0.09334485738980121</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02535832414553473</v>
+        <v>0.0233362143474503</v>
       </c>
       <c r="E8">
-        <v>0.002205071664829107</v>
+        <v>0.001728608470181504</v>
       </c>
       <c r="F8">
-        <v>0.06284454244762955</v>
+        <v>0.05963699222126188</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1058434399117971</v>
+        <v>0.118409680207433</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01984564498346196</v>
+        <v>0.01901469317199654</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.165380374862183</v>
+        <v>0.1624891961970614</v>
       </c>
       <c r="R8">
-        <v>0.09371554575523705</v>
+        <v>0.09075194468452895</v>
       </c>
       <c r="S8">
-        <v>0.432194046306505</v>
+        <v>0.4312878133102852</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1030444964871194</v>
+        <v>0.09073724007561437</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02107728337236534</v>
+        <v>0.01701323251417769</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05620608899297424</v>
+        <v>0.06238185255198488</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1241217798594848</v>
+        <v>0.1153119092627599</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0234192037470726</v>
+        <v>0.02268431001890359</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1990632318501171</v>
+        <v>0.1965973534971645</v>
       </c>
       <c r="R9">
-        <v>0.07728337236533958</v>
+        <v>0.06994328922495274</v>
       </c>
       <c r="S9">
-        <v>0.3957845433255269</v>
+        <v>0.4253308128544424</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1089341692789969</v>
+        <v>0.1089542892924233</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02115987460815047</v>
+        <v>0.02128991859737007</v>
       </c>
       <c r="E10">
-        <v>0.0007836990595611285</v>
+        <v>0.000939261114589856</v>
       </c>
       <c r="F10">
-        <v>0.07915360501567398</v>
+        <v>0.08015028177833437</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1112852664576802</v>
+        <v>0.1102066374452098</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01371473354231975</v>
+        <v>0.01408891671884784</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2084639498432602</v>
+        <v>0.2038196618659988</v>
       </c>
       <c r="R10">
-        <v>0.08738244514106583</v>
+        <v>0.08547276142767689</v>
       </c>
       <c r="S10">
-        <v>0.3691222570532915</v>
+        <v>0.3750782717595492</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.119672131147541</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09836065573770492</v>
+        <v>0.103359173126615</v>
       </c>
       <c r="K11">
-        <v>0.1672131147540984</v>
+        <v>0.1640826873385013</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.6072351421188631</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01475409836065574</v>
+        <v>0.01291989664082687</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7572559366754618</v>
+        <v>0.7525562372188139</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1662269129287599</v>
+        <v>0.1697341513292434</v>
       </c>
       <c r="K12">
-        <v>0.0158311345646438</v>
+        <v>0.01431492842535787</v>
       </c>
       <c r="L12">
-        <v>0.02902374670184697</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0316622691292876</v>
+        <v>0.032719836400818</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6595744680851063</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2659574468085106</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07446808510638298</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01089324618736384</v>
+        <v>0.01211072664359862</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1568627450980392</v>
+        <v>0.1608996539792387</v>
       </c>
       <c r="I15">
-        <v>0.0718954248366013</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="J15">
-        <v>0.392156862745098</v>
+        <v>0.3892733564013841</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.05709342560553633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008714596949891068</v>
+        <v>0.008650519031141869</v>
       </c>
       <c r="N15">
-        <v>0.002178649237472767</v>
+        <v>0.001730103806228374</v>
       </c>
       <c r="O15">
-        <v>0.0718954248366013</v>
+        <v>0.06747404844290658</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2265795206971677</v>
+        <v>0.2335640138408304</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03061224489795918</v>
+        <v>0.03131524008350731</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1964285714285714</v>
+        <v>0.1920668058455115</v>
       </c>
       <c r="I16">
-        <v>0.08163265306122448</v>
+        <v>0.07515657620041753</v>
       </c>
       <c r="J16">
-        <v>0.3877551020408163</v>
+        <v>0.3716075156576201</v>
       </c>
       <c r="K16">
-        <v>0.1198979591836735</v>
+        <v>0.1294363256784969</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02806122448979592</v>
+        <v>0.02505219206680585</v>
       </c>
       <c r="N16">
-        <v>0.002551020408163265</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="O16">
-        <v>0.05102040816326531</v>
+        <v>0.05010438413361169</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1020408163265306</v>
+        <v>0.1231732776617954</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02071973827699019</v>
+        <v>0.02044444444444445</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1810250817884406</v>
+        <v>0.1857777777777778</v>
       </c>
       <c r="I17">
-        <v>0.1112322791712105</v>
+        <v>0.1102222222222222</v>
       </c>
       <c r="J17">
-        <v>0.3838604143947655</v>
+        <v>0.3768888888888889</v>
       </c>
       <c r="K17">
-        <v>0.09814612868047982</v>
+        <v>0.104</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01417666303162486</v>
+        <v>0.02044444444444445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07742639040348964</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1134133042529989</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01951219512195122</v>
+        <v>0.02589641434262948</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1731707317073171</v>
+        <v>0.1673306772908366</v>
       </c>
       <c r="I18">
-        <v>0.0975609756097561</v>
+        <v>0.1035856573705179</v>
       </c>
       <c r="J18">
-        <v>0.4292682926829268</v>
+        <v>0.4183266932270917</v>
       </c>
       <c r="K18">
-        <v>0.1048780487804878</v>
+        <v>0.1055776892430279</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02682926829268293</v>
+        <v>0.02589641434262948</v>
       </c>
       <c r="N18">
-        <v>0.002439024390243902</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="O18">
-        <v>0.06097560975609756</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08536585365853659</v>
+        <v>0.08366533864541832</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02347417840375587</v>
+        <v>0.02301319423135931</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2046165884194053</v>
+        <v>0.2101871739797484</v>
       </c>
       <c r="I19">
-        <v>0.08646322378716745</v>
+        <v>0.08560908254065665</v>
       </c>
       <c r="J19">
-        <v>0.3646322378716745</v>
+        <v>0.360846885547714</v>
       </c>
       <c r="K19">
-        <v>0.1111111111111111</v>
+        <v>0.1107701749002762</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0230829420970266</v>
+        <v>0.02516109235961951</v>
       </c>
       <c r="N19">
-        <v>0.002347417840375587</v>
+        <v>0.001841055538508745</v>
       </c>
       <c r="O19">
-        <v>0.07198748043818466</v>
+        <v>0.07241485118134397</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1122848200312989</v>
+        <v>0.1101564897207732</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Diego_B.xlsx
+++ b/team_specific_matrix/San Diego_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2089356110381078</v>
+        <v>0.2086752637749121</v>
       </c>
       <c r="C2">
-        <v>0.5308804204993429</v>
+        <v>0.52989449003517</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007884362680683311</v>
+        <v>0.009378663540445486</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1406044678055191</v>
+        <v>0.1371629542790152</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1116951379763469</v>
+        <v>0.1148886283704572</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002375296912114014</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="C3">
-        <v>0.02850356294536817</v>
+        <v>0.02754237288135593</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05225653206650831</v>
+        <v>0.05296610169491525</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7125890736342043</v>
+        <v>0.7076271186440678</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2042755344418052</v>
+        <v>0.2097457627118644</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05737704918032787</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.680327868852459</v>
+        <v>0.6870229007633588</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2622950819672131</v>
+        <v>0.2595419847328244</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06396255850234009</v>
+        <v>0.06657223796033994</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0109204368174727</v>
+        <v>0.009915014164305949</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0655226209048362</v>
+        <v>0.06232294617563739</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2636505460218408</v>
+        <v>0.2677053824362606</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.031201248049922</v>
+        <v>0.028328611898017</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1669266770670827</v>
+        <v>0.1628895184135977</v>
       </c>
       <c r="R6">
-        <v>0.0686427457098284</v>
+        <v>0.07082152974504249</v>
       </c>
       <c r="S6">
-        <v>0.3291731669266771</v>
+        <v>0.3314447592067989</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09677419354838709</v>
+        <v>0.09731543624161074</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02656546489563567</v>
+        <v>0.02516778523489933</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06072106261859583</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1518026565464896</v>
+        <v>0.151006711409396</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01138519924098672</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1480075901328273</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="R7">
-        <v>0.08159392789373814</v>
+        <v>0.07718120805369127</v>
       </c>
       <c r="S7">
-        <v>0.4231499051233397</v>
+        <v>0.4211409395973154</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09334485738980121</v>
+        <v>0.09254901960784313</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0233362143474503</v>
+        <v>0.02274509803921568</v>
       </c>
       <c r="E8">
-        <v>0.001728608470181504</v>
+        <v>0.001568627450980392</v>
       </c>
       <c r="F8">
-        <v>0.05963699222126188</v>
+        <v>0.0603921568627451</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.118409680207433</v>
+        <v>0.1184313725490196</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01901469317199654</v>
+        <v>0.01803921568627451</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1624891961970614</v>
+        <v>0.1749019607843137</v>
       </c>
       <c r="R8">
-        <v>0.09075194468452895</v>
+        <v>0.08941176470588236</v>
       </c>
       <c r="S8">
-        <v>0.4312878133102852</v>
+        <v>0.4219607843137255</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09073724007561437</v>
+        <v>0.09122203098106713</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01701323251417769</v>
+        <v>0.01549053356282272</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06238185255198488</v>
+        <v>0.06540447504302926</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1153119092627599</v>
+        <v>0.1135972461273666</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02268431001890359</v>
+        <v>0.02581755593803787</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1965973534971645</v>
+        <v>0.197934595524957</v>
       </c>
       <c r="R9">
-        <v>0.06994328922495274</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="S9">
-        <v>0.4253308128544424</v>
+        <v>0.4182444061962134</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1089542892924233</v>
+        <v>0.1093003652711436</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02128991859737007</v>
+        <v>0.02107333520651869</v>
       </c>
       <c r="E10">
-        <v>0.000939261114589856</v>
+        <v>0.0008429334082607474</v>
       </c>
       <c r="F10">
-        <v>0.08015028177833437</v>
+        <v>0.07867378477100309</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1102066374452098</v>
+        <v>0.1098623208766508</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01408891671884784</v>
+        <v>0.01376791233492554</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2038196618659988</v>
+        <v>0.2020230401798258</v>
       </c>
       <c r="R10">
-        <v>0.08547276142767689</v>
+        <v>0.08738409665636415</v>
       </c>
       <c r="S10">
-        <v>0.3750782717595492</v>
+        <v>0.3770722112953077</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1124031007751938</v>
+        <v>0.1120092378752887</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.103359173126615</v>
+        <v>0.1027713625866051</v>
       </c>
       <c r="K11">
-        <v>0.1640826873385013</v>
+        <v>0.1662817551963048</v>
       </c>
       <c r="L11">
-        <v>0.6072351421188631</v>
+        <v>0.605080831408776</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01291989664082687</v>
+        <v>0.0138568129330254</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7525562372188139</v>
+        <v>0.7568555758683729</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1697341513292434</v>
+        <v>0.1645338208409506</v>
       </c>
       <c r="K12">
-        <v>0.01431492842535787</v>
+        <v>0.01279707495429616</v>
       </c>
       <c r="L12">
-        <v>0.03067484662576687</v>
+        <v>0.03290676416819013</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.032719836400818</v>
+        <v>0.03290676416819013</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="G13">
-        <v>0.6615384615384615</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2538461538461538</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08461538461538462</v>
+        <v>0.07482993197278912</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01211072664359862</v>
+        <v>0.01246105919003115</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1608996539792387</v>
+        <v>0.1526479750778816</v>
       </c>
       <c r="I15">
-        <v>0.06920415224913495</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="J15">
-        <v>0.3892733564013841</v>
+        <v>0.3862928348909657</v>
       </c>
       <c r="K15">
-        <v>0.05709342560553633</v>
+        <v>0.06230529595015576</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008650519031141869</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="N15">
-        <v>0.001730103806228374</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="O15">
-        <v>0.06747404844290658</v>
+        <v>0.06697819314641744</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2335640138408304</v>
+        <v>0.2414330218068536</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03131524008350731</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1920668058455115</v>
+        <v>0.1859582542694497</v>
       </c>
       <c r="I16">
-        <v>0.07515657620041753</v>
+        <v>0.07590132827324478</v>
       </c>
       <c r="J16">
-        <v>0.3716075156576201</v>
+        <v>0.3833017077798861</v>
       </c>
       <c r="K16">
-        <v>0.1294363256784969</v>
+        <v>0.1252371916508539</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02505219206680585</v>
+        <v>0.02466793168880456</v>
       </c>
       <c r="N16">
-        <v>0.00208768267223382</v>
+        <v>0.00189753320683112</v>
       </c>
       <c r="O16">
-        <v>0.05010438413361169</v>
+        <v>0.05123339658444023</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1231732776617954</v>
+        <v>0.1195445920303605</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02044444444444445</v>
+        <v>0.02301587301587302</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1857777777777778</v>
+        <v>0.1841269841269841</v>
       </c>
       <c r="I17">
-        <v>0.1102222222222222</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="J17">
-        <v>0.3768888888888889</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="K17">
-        <v>0.104</v>
+        <v>0.1063492063492063</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02044444444444445</v>
+        <v>0.02301587301587302</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07555555555555556</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1066666666666667</v>
+        <v>0.1126984126984127</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02589641434262948</v>
+        <v>0.0247787610619469</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1673306772908366</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="I18">
-        <v>0.1035856573705179</v>
+        <v>0.09911504424778761</v>
       </c>
       <c r="J18">
-        <v>0.4183266932270917</v>
+        <v>0.4194690265486726</v>
       </c>
       <c r="K18">
-        <v>0.1055776892430279</v>
+        <v>0.1132743362831858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02589641434262948</v>
+        <v>0.0247787610619469</v>
       </c>
       <c r="N18">
-        <v>0.00199203187250996</v>
+        <v>0.001769911504424779</v>
       </c>
       <c r="O18">
-        <v>0.06772908366533864</v>
+        <v>0.06902654867256637</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08366533864541832</v>
+        <v>0.08849557522123894</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02301319423135931</v>
+        <v>0.02179310344827586</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2101871739797484</v>
+        <v>0.2107586206896552</v>
       </c>
       <c r="I19">
-        <v>0.08560908254065665</v>
+        <v>0.08744827586206896</v>
       </c>
       <c r="J19">
-        <v>0.360846885547714</v>
+        <v>0.3633103448275862</v>
       </c>
       <c r="K19">
-        <v>0.1107701749002762</v>
+        <v>0.1092413793103448</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02516109235961951</v>
+        <v>0.02455172413793104</v>
       </c>
       <c r="N19">
-        <v>0.001841055538508745</v>
+        <v>0.001931034482758621</v>
       </c>
       <c r="O19">
-        <v>0.07241485118134397</v>
+        <v>0.07117241379310345</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101564897207732</v>
+        <v>0.1097931034482759</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Diego_B.xlsx
+++ b/team_specific_matrix/San Diego_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2086752637749121</v>
+        <v>0.2083780880773362</v>
       </c>
       <c r="C2">
-        <v>0.52989449003517</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009378663540445486</v>
+        <v>0.008592910848549946</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1371629542790152</v>
+        <v>0.1407089151450054</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1148886283704572</v>
+        <v>0.1160042964554243</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00211864406779661</v>
+        <v>0.00390625</v>
       </c>
       <c r="C3">
-        <v>0.02754237288135593</v>
+        <v>0.02734375</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05296610169491525</v>
+        <v>0.05078125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7076271186440678</v>
+        <v>0.708984375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2097457627118644</v>
+        <v>0.208984375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05343511450381679</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6870229007633588</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2595419847328244</v>
+        <v>0.2605633802816901</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06657223796033994</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009915014164305949</v>
+        <v>0.01049868766404199</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06232294617563739</v>
+        <v>0.06430446194225722</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2677053824362606</v>
+        <v>0.2650918635170604</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.028328611898017</v>
+        <v>0.02624671916010499</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1628895184135977</v>
+        <v>0.1548556430446194</v>
       </c>
       <c r="R6">
-        <v>0.07082152974504249</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="S6">
-        <v>0.3314447592067989</v>
+        <v>0.3412073490813649</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09731543624161074</v>
+        <v>0.1010886469673406</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02516778523489933</v>
+        <v>0.02488335925349922</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06040268456375839</v>
+        <v>0.05909797822706065</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.151006711409396</v>
+        <v>0.1461897356143079</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01342281879194631</v>
+        <v>0.01399688958009331</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1543624161073825</v>
+        <v>0.1539657853810264</v>
       </c>
       <c r="R7">
-        <v>0.07718120805369127</v>
+        <v>0.08087091757387248</v>
       </c>
       <c r="S7">
-        <v>0.4211409395973154</v>
+        <v>0.4199066874027994</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09254901960784313</v>
+        <v>0.09038322487346348</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02274509803921568</v>
+        <v>0.02241503976861894</v>
       </c>
       <c r="E8">
-        <v>0.001568627450980392</v>
+        <v>0.001446131597975416</v>
       </c>
       <c r="F8">
-        <v>0.0603921568627451</v>
+        <v>0.06146059291395517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1184313725490196</v>
+        <v>0.1207519884309472</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01803921568627451</v>
+        <v>0.0180766449746927</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1749019607843137</v>
+        <v>0.1778741865509761</v>
       </c>
       <c r="R8">
-        <v>0.08941176470588236</v>
+        <v>0.08821402747650037</v>
       </c>
       <c r="S8">
-        <v>0.4219607843137255</v>
+        <v>0.4193781634128706</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09122203098106713</v>
+        <v>0.09076433121019108</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01549053356282272</v>
+        <v>0.0143312101910828</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.001592356687898089</v>
       </c>
       <c r="F9">
-        <v>0.06540447504302926</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1135972461273666</v>
+        <v>0.1114649681528662</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02581755593803787</v>
+        <v>0.02866242038216561</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.197934595524957</v>
+        <v>0.1942675159235669</v>
       </c>
       <c r="R9">
-        <v>0.07228915662650602</v>
+        <v>0.07802547770700637</v>
       </c>
       <c r="S9">
-        <v>0.4182444061962134</v>
+        <v>0.410828025477707</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1093003652711436</v>
+        <v>0.1095995893223819</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02107333520651869</v>
+        <v>0.02130390143737166</v>
       </c>
       <c r="E10">
-        <v>0.0008429334082607474</v>
+        <v>0.0007700205338809035</v>
       </c>
       <c r="F10">
-        <v>0.07867378477100309</v>
+        <v>0.07751540041067762</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1098623208766508</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01376791233492554</v>
+        <v>0.01386036960985626</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2020230401798258</v>
+        <v>0.1996919917864476</v>
       </c>
       <c r="R10">
-        <v>0.08738409665636415</v>
+        <v>0.08752566735112936</v>
       </c>
       <c r="S10">
-        <v>0.3770722112953077</v>
+        <v>0.3788501026694045</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1120092378752887</v>
+        <v>0.1143473570658037</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1027713625866051</v>
+        <v>0.1035598705501618</v>
       </c>
       <c r="K11">
-        <v>0.1662817551963048</v>
+        <v>0.1682847896440129</v>
       </c>
       <c r="L11">
-        <v>0.605080831408776</v>
+        <v>0.598705501618123</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0138568129330254</v>
+        <v>0.0151024811218986</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7568555758683729</v>
+        <v>0.7633851468048359</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1645338208409506</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="K12">
-        <v>0.01279707495429616</v>
+        <v>0.01208981001727116</v>
       </c>
       <c r="L12">
-        <v>0.03290676416819013</v>
+        <v>0.03281519861830743</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03290676416819013</v>
+        <v>0.0310880829015544</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.006802721088435374</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="G13">
-        <v>0.673469387755102</v>
+        <v>0.6748466257668712</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2448979591836735</v>
+        <v>0.245398773006135</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07482993197278912</v>
+        <v>0.0736196319018405</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01246105919003115</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1526479750778816</v>
+        <v>0.1598877980364656</v>
       </c>
       <c r="I15">
-        <v>0.06542056074766354</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J15">
-        <v>0.3862928348909657</v>
+        <v>0.3772791023842917</v>
       </c>
       <c r="K15">
-        <v>0.06230529595015576</v>
+        <v>0.06732117812061711</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009345794392523364</v>
+        <v>0.01262272089761571</v>
       </c>
       <c r="N15">
-        <v>0.003115264797507788</v>
+        <v>0.002805049088359046</v>
       </c>
       <c r="O15">
-        <v>0.06697819314641744</v>
+        <v>0.06872370266479663</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2414330218068536</v>
+        <v>0.2356241234221599</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03225806451612903</v>
+        <v>0.03304347826086956</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1859582542694497</v>
+        <v>0.1791304347826087</v>
       </c>
       <c r="I16">
-        <v>0.07590132827324478</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="J16">
-        <v>0.3833017077798861</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K16">
-        <v>0.1252371916508539</v>
+        <v>0.1234782608695652</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02466793168880456</v>
+        <v>0.02260869565217391</v>
       </c>
       <c r="N16">
-        <v>0.00189753320683112</v>
+        <v>0.001739130434782609</v>
       </c>
       <c r="O16">
-        <v>0.05123339658444023</v>
+        <v>0.05391304347826087</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1195445920303605</v>
+        <v>0.1252173913043478</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02301587301587302</v>
+        <v>0.02210759027266028</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1841269841269841</v>
+        <v>0.182756079587325</v>
       </c>
       <c r="I17">
-        <v>0.1031746031746032</v>
+        <v>0.1024318349299926</v>
       </c>
       <c r="J17">
-        <v>0.3714285714285714</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="K17">
-        <v>0.1063492063492063</v>
+        <v>0.105379513633014</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02301587301587302</v>
+        <v>0.02431834929992631</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0761904761904762</v>
+        <v>0.07737656595431099</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1126984126984127</v>
+        <v>0.1127487103905674</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0247787610619469</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1592920353982301</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="I18">
-        <v>0.09911504424778761</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J18">
-        <v>0.4194690265486726</v>
+        <v>0.4225806451612903</v>
       </c>
       <c r="K18">
-        <v>0.1132743362831858</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0247787610619469</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="N18">
-        <v>0.001769911504424779</v>
+        <v>0.001612903225806452</v>
       </c>
       <c r="O18">
-        <v>0.06902654867256637</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08849557522123894</v>
+        <v>0.09516129032258064</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02179310344827586</v>
+        <v>0.02091206853111615</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2107586206896552</v>
+        <v>0.2091206853111615</v>
       </c>
       <c r="I19">
-        <v>0.08744827586206896</v>
+        <v>0.08742756361803981</v>
       </c>
       <c r="J19">
-        <v>0.3633103448275862</v>
+        <v>0.3668430335097002</v>
       </c>
       <c r="K19">
-        <v>0.1092413793103448</v>
+        <v>0.1055681531872008</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02455172413793104</v>
+        <v>0.02443940539178634</v>
       </c>
       <c r="N19">
-        <v>0.001931034482758621</v>
+        <v>0.002015621063240111</v>
       </c>
       <c r="O19">
-        <v>0.07117241379310345</v>
+        <v>0.07180650037792895</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1097931034482759</v>
+        <v>0.1118669690098262</v>
       </c>
     </row>
   </sheetData>
